--- a/data/trans_orig/P6714-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7620</v>
+        <v>8158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03325550358129027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00888097763280773</v>
+        <v>0.009066191687799372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09197215204566984</v>
+        <v>0.09847072710848773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5803</v>
+        <v>6293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02184738975266395</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06686059812032612</v>
+        <v>0.07251385593200436</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4651</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1835</v>
+        <v>1684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10859</v>
+        <v>10376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02741908763382428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01081534438402496</v>
+        <v>0.009926186769719942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0640146053756349</v>
+        <v>0.06116642747366674</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>3151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>939</v>
+        <v>957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9139</v>
+        <v>9451</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0380290031154635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01133154972793224</v>
+        <v>0.01155391118164566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1103006061509902</v>
+        <v>0.1140725142797387</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8749</v>
+        <v>8829</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03795222357213709</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01206311317550983</v>
+        <v>0.01208172163475859</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1008135530395878</v>
+        <v>0.1017318750708464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -855,19 +855,19 @@
         <v>6445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2235</v>
+        <v>2327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13137</v>
+        <v>12692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03798972253342855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01317544014050496</v>
+        <v>0.0137159991118059</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07743944400679248</v>
+        <v>0.07481559126528671</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>11294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5908</v>
+        <v>6110</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19139</v>
+        <v>19062</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1363112201802023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07131242988964806</v>
+        <v>0.07374550879912849</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2309996995774971</v>
+        <v>0.2300788224136212</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -905,19 +905,19 @@
         <v>13304</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7352</v>
+        <v>7934</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20543</v>
+        <v>21295</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1532911353165091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08471201640140957</v>
+        <v>0.09141547574910301</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2367079538485493</v>
+        <v>0.2453702961717176</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -926,19 +926,19 @@
         <v>24597</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17179</v>
+        <v>16132</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35305</v>
+        <v>34583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1449981818442317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1012708700981757</v>
+        <v>0.09509902436372736</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2081198555360995</v>
+        <v>0.2038644642594964</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>22601</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14736</v>
+        <v>15071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31484</v>
+        <v>31827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.272788729661612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1778599772733627</v>
+        <v>0.1819055871712374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.380002626742371</v>
+        <v>0.3841478782326451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -976,19 +976,19 @@
         <v>25700</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18224</v>
+        <v>17907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34329</v>
+        <v>34436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2961274933371215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2099843084970325</v>
+        <v>0.2063307539973754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3955496461797043</v>
+        <v>0.3967834608703528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -997,19 +997,19 @@
         <v>48301</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36815</v>
+        <v>36094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61283</v>
+        <v>60989</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2847288921245847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2170204827679246</v>
+        <v>0.2127681691716632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.361255362761247</v>
+        <v>0.3595259595446312</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>43051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33396</v>
+        <v>33920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53527</v>
+        <v>52184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5196155434614319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4030895390041752</v>
+        <v>0.4094075259310955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6460690361166979</v>
+        <v>0.6298534901939006</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1047,19 +1047,19 @@
         <v>42593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33778</v>
+        <v>33373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51317</v>
+        <v>52211</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4907817580215684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3892075703334031</v>
+        <v>0.3845371642513651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5912952044175402</v>
+        <v>0.6016023455569444</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -1068,19 +1068,19 @@
         <v>85644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72285</v>
+        <v>71724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98844</v>
+        <v>97947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5048641158639308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4261132142946233</v>
+        <v>0.4228082691477625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5826745764117945</v>
+        <v>0.5773912229754841</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>7778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3827</v>
+        <v>3792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14533</v>
+        <v>14845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02037968975145072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0100279870271244</v>
+        <v>0.009935132470103948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03808084489942651</v>
+        <v>0.03889813951154238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1193,19 +1193,19 @@
         <v>9620</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4222</v>
+        <v>4494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17005</v>
+        <v>17422</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03482942452812855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01528693166682767</v>
+        <v>0.01627008493850639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06156508357544166</v>
+        <v>0.06307565155613108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1214,19 +1214,19 @@
         <v>17398</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10855</v>
+        <v>11054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26620</v>
+        <v>28079</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0264465792253333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01650046832816064</v>
+        <v>0.01680343410020323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04046491224179808</v>
+        <v>0.04268262667280721</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>18828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11178</v>
+        <v>10969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28873</v>
+        <v>28908</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04933433451881898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02928790589430176</v>
+        <v>0.028740117324016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07565451067788687</v>
+        <v>0.07574536793189884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1264,19 +1264,19 @@
         <v>15042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8095</v>
+        <v>8545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24431</v>
+        <v>25811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05445786406680139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02930816857446096</v>
+        <v>0.03093569181602281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08845026456495045</v>
+        <v>0.0934459729262342</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1285,19 +1285,19 @@
         <v>33870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22956</v>
+        <v>23116</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47955</v>
+        <v>47563</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05148550808457542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0348947196499081</v>
+        <v>0.03513846693526324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07289542193667754</v>
+        <v>0.07230066612295273</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>68437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53528</v>
+        <v>54377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85795</v>
+        <v>85202</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1793184794531268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1402543373868264</v>
+        <v>0.142479097992278</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2248019821743855</v>
+        <v>0.2232478760048764</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1335,19 +1335,19 @@
         <v>37576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26496</v>
+        <v>28200</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50387</v>
+        <v>51671</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1360425032094061</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09592624879603778</v>
+        <v>0.1020982455168081</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1824243692539061</v>
+        <v>0.1870724349121733</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -1356,19 +1356,19 @@
         <v>106013</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>86884</v>
+        <v>87791</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>125252</v>
+        <v>126732</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1611485566965664</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1320705491471272</v>
+        <v>0.1334496572015521</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1903943660311091</v>
+        <v>0.192644088247415</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>77911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62696</v>
+        <v>63776</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94365</v>
+        <v>95176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2041428402764866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1642783323005412</v>
+        <v>0.1671076054547268</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2472575107987101</v>
+        <v>0.249381640797102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1406,19 +1406,19 @@
         <v>69666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54756</v>
+        <v>56379</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83963</v>
+        <v>85277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2522221993268078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1982411102108425</v>
+        <v>0.2041178400181944</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3039833892156014</v>
+        <v>0.3087391707459026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -1427,19 +1427,19 @@
         <v>147577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127830</v>
+        <v>126394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>168911</v>
+        <v>170364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2243295192599799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1943133792452836</v>
+        <v>0.1921304911346971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2567594852229681</v>
+        <v>0.2589688276563238</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>208695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187096</v>
+        <v>190514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229381</v>
+        <v>229541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5468246560001169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4902322033415908</v>
+        <v>0.4991887949827526</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6010271499218152</v>
+        <v>0.6014468821258342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1477,19 +1477,19 @@
         <v>144305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128113</v>
+        <v>126809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161756</v>
+        <v>160463</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5224480088688561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4638250199422926</v>
+        <v>0.4591058623616998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5856286106226225</v>
+        <v>0.5809481726343932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>332</v>
@@ -1498,19 +1498,19 @@
         <v>352999</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>326605</v>
+        <v>330652</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>377037</v>
+        <v>380407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.536589836733545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4964682156656761</v>
+        <v>0.502619456888689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5731294498861822</v>
+        <v>0.5782521397100954</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>7853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3586</v>
+        <v>3645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15548</v>
+        <v>16747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01846836242287359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008432638304743629</v>
+        <v>0.00857287818728528</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03656574245841041</v>
+        <v>0.03938565809722298</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1623,19 +1623,19 @@
         <v>4180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10939</v>
+        <v>10156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01467024477174807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003968481006695181</v>
+        <v>0.003960689174778625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03839079515333831</v>
+        <v>0.03564494326904133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1644,19 +1644,19 @@
         <v>12033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6739</v>
+        <v>5691</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21073</v>
+        <v>21190</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01694441640738753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009489692798520964</v>
+        <v>0.008014649231992604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02967439348455173</v>
+        <v>0.02983909586337663</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>15544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8749</v>
+        <v>7808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27461</v>
+        <v>26252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03655602270744186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02057546720325308</v>
+        <v>0.01836392263792938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0645833343662781</v>
+        <v>0.06173988057851406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1694,19 +1694,19 @@
         <v>9993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4397</v>
+        <v>4757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19821</v>
+        <v>19935</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03507287016743338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01543231550210373</v>
+        <v>0.01669672975009832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06956339208775293</v>
+        <v>0.06996529207753381</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1715,19 +1715,19 @@
         <v>25537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15858</v>
+        <v>15462</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38742</v>
+        <v>39075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0359609267648414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02233104217936645</v>
+        <v>0.02177298644865033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05455601895003549</v>
+        <v>0.05502564682548308</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>64134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50422</v>
+        <v>51292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81017</v>
+        <v>81525</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1508328801629661</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1185833063098025</v>
+        <v>0.1206315023398857</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1905384730162469</v>
+        <v>0.1917333543465981</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1765,19 +1765,19 @@
         <v>56831</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44128</v>
+        <v>45137</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71852</v>
+        <v>71669</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1994561477618684</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1548731333409722</v>
+        <v>0.1584127539920738</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2521749258448736</v>
+        <v>0.2515318191448781</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>118</v>
@@ -1786,19 +1786,19 @@
         <v>120965</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101458</v>
+        <v>101627</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>141888</v>
+        <v>140276</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1703423429346897</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1428725463939404</v>
+        <v>0.1431105530754441</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1998064722686427</v>
+        <v>0.1975356173550484</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>101095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85635</v>
+        <v>86118</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118981</v>
+        <v>120671</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2377581217551778</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2013989746727964</v>
+        <v>0.2025360486568567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2798244643941066</v>
+        <v>0.2837983685006362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -1836,19 +1836,19 @@
         <v>73859</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60055</v>
+        <v>60288</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90166</v>
+        <v>90956</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2592178315156989</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2107696156309208</v>
+        <v>0.2115897126536199</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3164494235409085</v>
+        <v>0.3192225096042358</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -1857,19 +1857,19 @@
         <v>174953</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154341</v>
+        <v>152089</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198846</v>
+        <v>198235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2463685551822051</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2173417911487549</v>
+        <v>0.2141713766213982</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2800132302790965</v>
+        <v>0.2791539239309485</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>236574</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214903</v>
+        <v>216364</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257019</v>
+        <v>257541</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5563846129515406</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5054176409097045</v>
+        <v>0.5088532376357375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6044680186698531</v>
+        <v>0.605695996740917</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -1907,19 +1907,19 @@
         <v>140067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122357</v>
+        <v>122588</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156923</v>
+        <v>155869</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4915829057832513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4294293464071454</v>
+        <v>0.4302395979983991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5507438191460625</v>
+        <v>0.5470444180909112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -1928,19 +1928,19 @@
         <v>376641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>348565</v>
+        <v>351074</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>403032</v>
+        <v>403478</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5303837587108763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4908479494590695</v>
+        <v>0.4943802933300745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5675478475656206</v>
+        <v>0.5681756810372833</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>3029</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8323</v>
+        <v>8515</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008237797708742143</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002580468644339391</v>
+        <v>0.00260420593546375</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02263675722667592</v>
+        <v>0.02316102892594223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6358</v>
+        <v>6323</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009104214479720972</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02834798663021222</v>
+        <v>0.02819510230611833</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2074,19 +2074,19 @@
         <v>5071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2007</v>
+        <v>1974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11976</v>
+        <v>10911</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008566068168988411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003391390226862985</v>
+        <v>0.00333437393450193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02023114115902737</v>
+        <v>0.01843339565480078</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>8617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4125</v>
+        <v>4066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15455</v>
+        <v>16924</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02343614392425145</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0112202393913216</v>
+        <v>0.01105882480111321</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0420360828741656</v>
+        <v>0.04603060777443553</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2124,19 +2124,19 @@
         <v>8967</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4246</v>
+        <v>4447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16388</v>
+        <v>18067</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03998033489426362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0189298914469653</v>
+        <v>0.01982848351323065</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07307323453525084</v>
+        <v>0.08055927265581581</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2145,19 +2145,19 @@
         <v>17583</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10723</v>
+        <v>10327</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27771</v>
+        <v>28334</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02970445424099712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01811515939876186</v>
+        <v>0.01744547956776108</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04691576542866778</v>
+        <v>0.0478672183395492</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>35819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24304</v>
+        <v>24978</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49154</v>
+        <v>49447</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09742369752448035</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06610328088121116</v>
+        <v>0.0679361501433078</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1336922263385533</v>
+        <v>0.134490396577738</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2195,19 +2195,19 @@
         <v>38544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26644</v>
+        <v>27089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>50853</v>
+        <v>51262</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1718598726741829</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1188002782919913</v>
+        <v>0.1207837927355161</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2267442488447885</v>
+        <v>0.2285673097727607</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>64</v>
@@ -2216,19 +2216,19 @@
         <v>74363</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59031</v>
+        <v>59069</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93735</v>
+        <v>94903</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1256262881181033</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09972544011068572</v>
+        <v>0.09978860093821446</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1583527729329732</v>
+        <v>0.160325204869295</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>84257</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67994</v>
+        <v>68750</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100733</v>
+        <v>103470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2291690964344546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1849353844983269</v>
+        <v>0.1869916419633144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2739805677220754</v>
+        <v>0.2814261867599833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2266,19 +2266,19 @@
         <v>53011</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39803</v>
+        <v>40378</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67514</v>
+        <v>66686</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2363663341902236</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1774732561021057</v>
+        <v>0.1800387944365069</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3010319312702862</v>
+        <v>0.2973417937898805</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -2287,19 +2287,19 @@
         <v>137268</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115234</v>
+        <v>118205</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161938</v>
+        <v>161661</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.231896006427112</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1946729047103752</v>
+        <v>0.1996907663124047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.273572293007237</v>
+        <v>0.2731040194287814</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>235942</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>217044</v>
+        <v>215784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>256082</v>
+        <v>256724</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6417332644080714</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5903332646663789</v>
+        <v>0.5869070940120865</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6965140246999394</v>
+        <v>0.698259438606769</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2337,19 +2337,19 @@
         <v>121712</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106072</v>
+        <v>105821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137966</v>
+        <v>138318</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.542689243761609</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4729534247924966</v>
+        <v>0.4718364036463958</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6151638622994385</v>
+        <v>0.6167344810413383</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>313</v>
@@ -2358,19 +2358,19 @@
         <v>357653</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>328477</v>
+        <v>330098</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>380103</v>
+        <v>381249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6042071830447991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5549173623614265</v>
+        <v>0.5576566111516086</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6421333976170112</v>
+        <v>0.6440686780448857</v>
       </c>
     </row>
     <row r="27">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5056</v>
+        <v>4589</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007208795986461779</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03213375444183035</v>
+        <v>0.02916274568999122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5447</v>
+        <v>5710</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004996049874009165</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02399254291623928</v>
+        <v>0.02514755954439786</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>4302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9721</v>
+        <v>9892</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02734113007409981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006806773540049196</v>
+        <v>0.006903360277208439</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06178011020018789</v>
+        <v>0.0628688076276348</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9252</v>
+        <v>12637</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02782635830899477</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1327543804097555</v>
+        <v>0.1813278340944561</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2567,19 +2567,19 @@
         <v>6241</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2114</v>
+        <v>2141</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14629</v>
+        <v>14334</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02749007129707691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009309643058878865</v>
+        <v>0.009431486951235916</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06443198204409814</v>
+        <v>0.06313513288587572</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>14506</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8277</v>
+        <v>8342</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22975</v>
+        <v>23680</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09219009578083261</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05259956586345711</v>
+        <v>0.05301810481960647</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1460086586056132</v>
+        <v>0.1504934573338293</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2617,19 +2617,19 @@
         <v>8369</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3937</v>
+        <v>4125</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15464</v>
+        <v>14833</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1200813552667599</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05648665158234074</v>
+        <v>0.05918435619899026</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2218959816835591</v>
+        <v>0.2128364724152155</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -2638,19 +2638,19 @@
         <v>22875</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14527</v>
+        <v>15566</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32917</v>
+        <v>32847</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1007513418078802</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06398245039882765</v>
+        <v>0.06855824944644184</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1449828991793294</v>
+        <v>0.144675878285852</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>36590</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26894</v>
+        <v>26615</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49831</v>
+        <v>48980</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2325376358500924</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1709141973053224</v>
+        <v>0.1691410535339484</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3166890586801384</v>
+        <v>0.3112767230082735</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -2688,19 +2688,19 @@
         <v>16041</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9657</v>
+        <v>9374</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24437</v>
+        <v>23835</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2301672549049328</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1385701974096551</v>
+        <v>0.1345025455656939</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.350645078039064</v>
+        <v>0.3420105098608279</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>48</v>
@@ -2709,19 +2709,19 @@
         <v>52630</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40659</v>
+        <v>41155</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>68170</v>
+        <v>67226</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2318100453854318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1790831230005986</v>
+        <v>0.1812656866590308</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3002547318993791</v>
+        <v>0.2960950604598015</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>100818</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>86163</v>
+        <v>87814</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>112044</v>
+        <v>113149</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6407223423085134</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5475841470213979</v>
+        <v>0.5580740609308448</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7120643983838874</v>
+        <v>0.7190858720055748</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -2759,19 +2759,19 @@
         <v>43343</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>33809</v>
+        <v>33739</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51077</v>
+        <v>51803</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6219250315193124</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4851221701652145</v>
+        <v>0.4841211228842204</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7329071013100598</v>
+        <v>0.7433285080156771</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>134</v>
@@ -2780,19 +2780,19 @@
         <v>144160</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>128514</v>
+        <v>128049</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>158500</v>
+        <v>158325</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.634952491635602</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5660377335472355</v>
+        <v>0.563991405439458</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6981114921398691</v>
+        <v>0.6973413019370953</v>
       </c>
     </row>
     <row r="33">
@@ -2884,19 +2884,19 @@
         <v>22549</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14437</v>
+        <v>14609</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33356</v>
+        <v>33455</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01593885789886484</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01020476070016156</v>
+        <v>0.01032673467864048</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02357773381296571</v>
+        <v>0.02364799393773465</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2905,19 +2905,19 @@
         <v>17738</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10453</v>
+        <v>10646</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28042</v>
+        <v>27531</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01883243032633461</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0110978353259833</v>
+        <v>0.01130232371761368</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02977155984223001</v>
+        <v>0.02922970876236843</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -2926,19 +2926,19 @@
         <v>40287</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28724</v>
+        <v>28876</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54156</v>
+        <v>55205</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01709536673690172</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01218884265112926</v>
+        <v>0.01225314473419472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02298039690086981</v>
+        <v>0.02342583912913921</v>
       </c>
     </row>
     <row r="35">
@@ -2955,19 +2955,19 @@
         <v>50441</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36760</v>
+        <v>37817</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67104</v>
+        <v>67375</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03565491431665365</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02598428351266607</v>
+        <v>0.02673106617455568</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04743302653528583</v>
+        <v>0.04762437295598326</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2976,19 +2976,19 @@
         <v>39235</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27202</v>
+        <v>27522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>54892</v>
+        <v>55911</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04165516191714037</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02888011222594203</v>
+        <v>0.02922000358977165</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0582788927053504</v>
+        <v>0.05936058999987642</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>77</v>
@@ -2997,19 +2997,19 @@
         <v>89676</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>71057</v>
+        <v>72113</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110076</v>
+        <v>111685</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03805310532597305</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03015224307843346</v>
+        <v>0.03060038854818478</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04670960428854208</v>
+        <v>0.04739218008848182</v>
       </c>
     </row>
     <row r="36">
@@ -3026,19 +3026,19 @@
         <v>194189</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>166802</v>
+        <v>169034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>221337</v>
+        <v>222695</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1372642307106214</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1179054226805557</v>
+        <v>0.1194833014056484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1564538331515727</v>
+        <v>0.1574136019897097</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>143</v>
@@ -3047,19 +3047,19 @@
         <v>154624</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>132818</v>
+        <v>132048</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>179466</v>
+        <v>176737</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1641625298763872</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1410122969930223</v>
+        <v>0.1401941857572657</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1905377149953539</v>
+        <v>0.1876404760810586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>326</v>
@@ -3068,19 +3068,19 @@
         <v>348813</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>312304</v>
+        <v>315229</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>383811</v>
+        <v>388122</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1480149969323504</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1325226749769643</v>
+        <v>0.1337641439283445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1628661605829821</v>
+        <v>0.1646953959577329</v>
       </c>
     </row>
     <row r="37">
@@ -3097,19 +3097,19 @@
         <v>322453</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>291087</v>
+        <v>293454</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>356602</v>
+        <v>358678</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2279284122685862</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2057567678231056</v>
+        <v>0.2074300497351417</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2520669793596686</v>
+        <v>0.2535345904554395</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>224</v>
@@ -3118,19 +3118,19 @@
         <v>238277</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>213896</v>
+        <v>210878</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>269869</v>
+        <v>266163</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2529766244366204</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2270913852493702</v>
+        <v>0.2238877284566514</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2865174409991484</v>
+        <v>0.2825825768461335</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>534</v>
@@ -3139,19 +3139,19 @@
         <v>560730</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>524074</v>
+        <v>518485</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>605829</v>
+        <v>602612</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2379397320041304</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2223852137559897</v>
+        <v>0.2200136687302759</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2570769898735503</v>
+        <v>0.2557120213911562</v>
       </c>
     </row>
     <row r="38">
@@ -3168,19 +3168,19 @@
         <v>825079</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>782268</v>
+        <v>785798</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>863387</v>
+        <v>865450</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5832135848052739</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5529518634546648</v>
+        <v>0.5554474234813469</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6102916417832598</v>
+        <v>0.6117500433210259</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>452</v>
@@ -3189,19 +3189,19 @@
         <v>492020</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>461061</v>
+        <v>459204</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>528169</v>
+        <v>523102</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5223732534435175</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4895049174634137</v>
+        <v>0.4875332313694191</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5607523976309641</v>
+        <v>0.5553726402327046</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1222</v>
@@ -3210,19 +3210,19 @@
         <v>1317099</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1268468</v>
+        <v>1264447</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1363115</v>
+        <v>1365089</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5588967990006445</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5382606269652208</v>
+        <v>0.5365543272318758</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.578423383669543</v>
+        <v>0.579260865908553</v>
       </c>
     </row>
     <row r="39">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6275</v>
+        <v>5288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01339527225522635</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0793189906298548</v>
+        <v>0.06684411296006564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5536</v>
+        <v>5471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01181598260976794</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06027377619873397</v>
+        <v>0.05956365757845113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6409</v>
+        <v>7169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0125467582208373</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03748558921614693</v>
+        <v>0.04193111564237936</v>
       </c>
     </row>
     <row r="5">
@@ -3626,19 +3626,19 @@
         <v>8198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4009</v>
+        <v>4044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15154</v>
+        <v>14428</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1036347110797054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05068120777862176</v>
+        <v>0.05111663684800197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1915643522501933</v>
+        <v>0.1823855402536817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -3647,19 +3647,19 @@
         <v>6644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2878</v>
+        <v>2780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12449</v>
+        <v>12395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0723263645486195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.031335203993253</v>
+        <v>0.03026469822217419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1355305665646105</v>
+        <v>0.1349437722530183</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3668,19 +3668,19 @@
         <v>14842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8811</v>
+        <v>8495</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23198</v>
+        <v>22972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08681349560378746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05153564911160818</v>
+        <v>0.0496908538635435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1356899601274501</v>
+        <v>0.1343684315816737</v>
       </c>
     </row>
     <row r="6">
@@ -3697,19 +3697,19 @@
         <v>21057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13139</v>
+        <v>13934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30051</v>
+        <v>29859</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2661747323303074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1660825582491788</v>
+        <v>0.1761334823657942</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3798681545804374</v>
+        <v>0.3774410018611925</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3718,19 +3718,19 @@
         <v>22663</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15407</v>
+        <v>15001</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31330</v>
+        <v>31026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2467310538082184</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1677282623905932</v>
+        <v>0.1633131982841003</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.341086257376357</v>
+        <v>0.3377712630856146</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -3739,19 +3739,19 @@
         <v>43720</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33093</v>
+        <v>33559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57551</v>
+        <v>56260</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.255728115299932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1935676845714754</v>
+        <v>0.196293621432563</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3366266219517642</v>
+        <v>0.3290756185042949</v>
       </c>
     </row>
     <row r="7">
@@ -3768,19 +3768,19 @@
         <v>22673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15807</v>
+        <v>15229</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31471</v>
+        <v>31393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2866024545863227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1998163786876271</v>
+        <v>0.1925033286511971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3978186879926962</v>
+        <v>0.3968349871218195</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3789,19 +3789,19 @@
         <v>29084</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21400</v>
+        <v>21330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39224</v>
+        <v>39336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3166335613716063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2329807483730867</v>
+        <v>0.2322131040901578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4270176445424615</v>
+        <v>0.4282399313222792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3810,19 +3810,19 @@
         <v>51757</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39681</v>
+        <v>41064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64398</v>
+        <v>64980</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3027374401153088</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2320999641082405</v>
+        <v>0.2401912083213887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3766743859572076</v>
+        <v>0.3800798878479384</v>
       </c>
     </row>
     <row r="8">
@@ -3839,19 +3839,19 @@
         <v>26121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17863</v>
+        <v>17904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34824</v>
+        <v>34901</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3301928297484382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2258033353991106</v>
+        <v>0.2263185418247339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4402086266884379</v>
+        <v>0.441178565093233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -3860,19 +3860,19 @@
         <v>32378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23586</v>
+        <v>23520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42071</v>
+        <v>41567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.352493037661788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2567764579227872</v>
+        <v>0.256052877611757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4580114853843592</v>
+        <v>0.452528515812411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -3881,19 +3881,19 @@
         <v>58499</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46488</v>
+        <v>46652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71169</v>
+        <v>71633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3421741907601344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2719153936098967</v>
+        <v>0.2728763781931748</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4162802234641037</v>
+        <v>0.4189936813272481</v>
       </c>
     </row>
     <row r="9">
@@ -3985,19 +3985,19 @@
         <v>15277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8677</v>
+        <v>8528</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25401</v>
+        <v>24411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04438732572585848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02521037832366016</v>
+        <v>0.02477799090449977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07379948752703994</v>
+        <v>0.07092375207844842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4006,19 +4006,19 @@
         <v>3997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9458</v>
+        <v>10169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01460443598714483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003674308547088721</v>
+        <v>0.003679493063498935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03455511273263175</v>
+        <v>0.03715004413625968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -4027,19 +4027,19 @@
         <v>19275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12664</v>
+        <v>11636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30798</v>
+        <v>29463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03119418646186543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02049467047474449</v>
+        <v>0.01883217053065995</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04984227221487651</v>
+        <v>0.04768173153025639</v>
       </c>
     </row>
     <row r="11">
@@ -4056,19 +4056,19 @@
         <v>21703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13706</v>
+        <v>12794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32339</v>
+        <v>31733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06305761837057655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03982073677061577</v>
+        <v>0.0371712623789045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09395719154082846</v>
+        <v>0.09219690477074728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -4077,19 +4077,19 @@
         <v>26467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18030</v>
+        <v>18162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36634</v>
+        <v>36924</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09669485728755654</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06587296413702932</v>
+        <v>0.06635519631986517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1338394586638218</v>
+        <v>0.1348979972231829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -4098,19 +4098,19 @@
         <v>48170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35661</v>
+        <v>36793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61601</v>
+        <v>63413</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07795814620320891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05771301347096891</v>
+        <v>0.05954440733873408</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09969397091165452</v>
+        <v>0.1026267342955625</v>
       </c>
     </row>
     <row r="12">
@@ -4127,19 +4127,19 @@
         <v>75268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59928</v>
+        <v>59810</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92203</v>
+        <v>91295</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2186850621859604</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1741142740571203</v>
+        <v>0.1737728185556162</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2678883401871912</v>
+        <v>0.2652508973228453</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -4148,19 +4148,19 @@
         <v>54767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43548</v>
+        <v>42439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69115</v>
+        <v>68745</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2000874260396254</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1590982567387131</v>
+        <v>0.1550460205052752</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2525066304401501</v>
+        <v>0.2511554858923379</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>126</v>
@@ -4169,19 +4169,19 @@
         <v>130035</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111311</v>
+        <v>110974</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151594</v>
+        <v>151322</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.21044673454844</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1801428694067882</v>
+        <v>0.1795972809055958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.245336506097573</v>
+        <v>0.2448968173939164</v>
       </c>
     </row>
     <row r="13">
@@ -4198,19 +4198,19 @@
         <v>92411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77493</v>
+        <v>77378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110143</v>
+        <v>109469</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2684932848336135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2251506796497483</v>
+        <v>0.2248142778399322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3200117239339389</v>
+        <v>0.318052794266336</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -4219,19 +4219,19 @@
         <v>76842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63505</v>
+        <v>62288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91965</v>
+        <v>90902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2807379560675722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.232012249468395</v>
+        <v>0.2275635806149284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3359884147025061</v>
+        <v>0.3321036543695923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -4240,19 +4240,19 @@
         <v>169254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148171</v>
+        <v>148452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192741</v>
+        <v>191406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2739173942551193</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2397971533205859</v>
+        <v>0.2402516085266867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3119276249781934</v>
+        <v>0.309767892050905</v>
       </c>
     </row>
     <row r="14">
@@ -4269,19 +4269,19 @@
         <v>139525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120016</v>
+        <v>120670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157557</v>
+        <v>158548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4053767088839912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.348696637247713</v>
+        <v>0.3505958577640076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4577679053492367</v>
+        <v>0.4606472795502153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -4290,19 +4290,19 @@
         <v>111642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95172</v>
+        <v>95792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>128176</v>
+        <v>128026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.407875324618101</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3477044663608072</v>
+        <v>0.3499702633871236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4682804197041789</v>
+        <v>0.467732674095382</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>248</v>
@@ -4311,19 +4311,19 @@
         <v>251167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228196</v>
+        <v>227968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>277724</v>
+        <v>275578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4064835385313664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.369308053926794</v>
+        <v>0.3689379990893871</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4494628116410099</v>
+        <v>0.445990389423774</v>
       </c>
     </row>
     <row r="15">
@@ -4415,19 +4415,19 @@
         <v>8180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3423</v>
+        <v>3386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16122</v>
+        <v>17153</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01779876585476823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007447719992704406</v>
+        <v>0.007366555740817834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03507969346589488</v>
+        <v>0.0373230761594905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4436,19 +4436,19 @@
         <v>7314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3146</v>
+        <v>2550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16512</v>
+        <v>15920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02304206839046485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009911762734857834</v>
+        <v>0.008032657296495434</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05202075773572778</v>
+        <v>0.05015418886560905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -4457,19 +4457,19 @@
         <v>15494</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8790</v>
+        <v>8342</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26609</v>
+        <v>26081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01994071290394508</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01131328281745757</v>
+        <v>0.01073635038216978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03424543963230439</v>
+        <v>0.03356566346420561</v>
       </c>
     </row>
     <row r="17">
@@ -4486,19 +4486,19 @@
         <v>23283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15158</v>
+        <v>14612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33843</v>
+        <v>34647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05066029015364948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03298267118746229</v>
+        <v>0.0317927489583948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0736378487806383</v>
+        <v>0.07538772324799767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4507,19 +4507,19 @@
         <v>15999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10123</v>
+        <v>9528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25115</v>
+        <v>25228</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05040386832185526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03189141193740647</v>
+        <v>0.03001902283919303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07912312391599671</v>
+        <v>0.07947995857813896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -4528,19 +4528,19 @@
         <v>39282</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28709</v>
+        <v>29125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51644</v>
+        <v>53307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05055553900068493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03694831687742513</v>
+        <v>0.03748375479407406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06646540184061665</v>
+        <v>0.06860557696356501</v>
       </c>
     </row>
     <row r="18">
@@ -4557,19 +4557,19 @@
         <v>93239</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77014</v>
+        <v>77238</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112169</v>
+        <v>112459</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2028746410292958</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1675718501382426</v>
+        <v>0.1680591984793688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2440648375412645</v>
+        <v>0.2446950856010585</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -4578,19 +4578,19 @@
         <v>53271</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41650</v>
+        <v>41632</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66672</v>
+        <v>67353</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.167827979645074</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1312179215508149</v>
+        <v>0.1311595176105454</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2100483289850877</v>
+        <v>0.2121929928068698</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>141</v>
@@ -4599,19 +4599,19 @@
         <v>146510</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126298</v>
+        <v>127844</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>169688</v>
+        <v>171126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1885576924221217</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.162546058499927</v>
+        <v>0.1645357866002504</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2183879233472337</v>
+        <v>0.2202394306038958</v>
       </c>
     </row>
     <row r="19">
@@ -4628,19 +4628,19 @@
         <v>119167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101132</v>
+        <v>101399</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138997</v>
+        <v>139171</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2592911852192254</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.220049833653591</v>
+        <v>0.2206300089522507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3024392805933408</v>
+        <v>0.3028176484933324</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -4649,19 +4649,19 @@
         <v>87821</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71672</v>
+        <v>73545</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103652</v>
+        <v>104073</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2766779676816324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2257985311998405</v>
+        <v>0.2316998293934321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3265511210146206</v>
+        <v>0.3278783184914598</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>205</v>
@@ -4670,19 +4670,19 @@
         <v>206988</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183200</v>
+        <v>183066</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>231634</v>
+        <v>232307</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2663938780614733</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2357779373106878</v>
+        <v>0.2356060677031668</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.298112934290274</v>
+        <v>0.2989785178170132</v>
       </c>
     </row>
     <row r="20">
@@ -4699,19 +4699,19 @@
         <v>215719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>193730</v>
+        <v>195974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239380</v>
+        <v>237748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4693751177430611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4215288386902014</v>
+        <v>0.4264129419101425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.520857976640959</v>
+        <v>0.5173070387948202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -4720,19 +4720,19 @@
         <v>153009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>135370</v>
+        <v>135419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>168863</v>
+        <v>171369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4820481159609735</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4264775255220061</v>
+        <v>0.426632193417076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.531996768373855</v>
+        <v>0.5398909180303398</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>357</v>
@@ -4741,19 +4741,19 @@
         <v>368728</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339570</v>
+        <v>338376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394118</v>
+        <v>394609</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.474552177611775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4370265418054863</v>
+        <v>0.4354898256780361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5072297814936605</v>
+        <v>0.5078619576404586</v>
       </c>
     </row>
     <row r="21">
@@ -4845,19 +4845,19 @@
         <v>5358</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1906</v>
+        <v>2028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11155</v>
+        <v>12030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01457014258912724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005181823276473485</v>
+        <v>0.005515292806030813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03033556985209718</v>
+        <v>0.03271507853714836</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4866,19 +4866,19 @@
         <v>11865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6344</v>
+        <v>6522</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20683</v>
+        <v>20109</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04880498152397048</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02609326864199159</v>
+        <v>0.02682754991308571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08507198217929809</v>
+        <v>0.08271234926378498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4887,19 +4887,19 @@
         <v>17223</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10401</v>
+        <v>9697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27677</v>
+        <v>26833</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02819567827177284</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01702639214369805</v>
+        <v>0.01587468382899979</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04530906222061545</v>
+        <v>0.04392752927688674</v>
       </c>
     </row>
     <row r="23">
@@ -4916,19 +4916,19 @@
         <v>12235</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5602</v>
+        <v>5939</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22152</v>
+        <v>23125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03327095716388528</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01523292600784013</v>
+        <v>0.01614965412371974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06024020816684126</v>
+        <v>0.06288540818045051</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -4937,19 +4937,19 @@
         <v>17292</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9818</v>
+        <v>10607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26962</v>
+        <v>27936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07112706982869807</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04038348080654879</v>
+        <v>0.04362760529338846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1109014425085021</v>
+        <v>0.1149079893823104</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -4958,19 +4958,19 @@
         <v>29527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19774</v>
+        <v>19906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43008</v>
+        <v>42528</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04833776717290454</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03237186982822027</v>
+        <v>0.03258801874648556</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.070407879128442</v>
+        <v>0.06962071541365671</v>
       </c>
     </row>
     <row r="24">
@@ -4987,19 +4987,19 @@
         <v>68113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54213</v>
+        <v>53029</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86058</v>
+        <v>84888</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1852256220950436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1474276007220617</v>
+        <v>0.1442074575973029</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2340266899980486</v>
+        <v>0.230843868502315</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -5008,19 +5008,19 @@
         <v>36316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26644</v>
+        <v>26464</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49592</v>
+        <v>48978</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.149374372765037</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1095919712621886</v>
+        <v>0.1088528043843442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2039819785983079</v>
+        <v>0.2014563089025206</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -5029,19 +5029,19 @@
         <v>104428</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>87214</v>
+        <v>86357</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>126249</v>
+        <v>125488</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1709567517801243</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1427751888280566</v>
+        <v>0.1413723284503181</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2066784753783623</v>
+        <v>0.205432739680291</v>
       </c>
     </row>
     <row r="25">
@@ -5058,19 +5058,19 @@
         <v>102433</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85045</v>
+        <v>86529</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120363</v>
+        <v>121472</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2785560336796586</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2312704623127892</v>
+        <v>0.2353069764213503</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3273149515999612</v>
+        <v>0.3303304520906585</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -5079,19 +5079,19 @@
         <v>70635</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57353</v>
+        <v>57372</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86945</v>
+        <v>86019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2905391230337557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2359041284043034</v>
+        <v>0.2359829781170594</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3576259618318857</v>
+        <v>0.3538174837389738</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -5100,19 +5100,19 @@
         <v>173068</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149251</v>
+        <v>149739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197866</v>
+        <v>197577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2833253276697175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2443345424803677</v>
+        <v>0.2451342134377168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3239212604229824</v>
+        <v>0.3234474911709397</v>
       </c>
     </row>
     <row r="26">
@@ -5129,19 +5129,19 @@
         <v>179590</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>159195</v>
+        <v>158260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>200474</v>
+        <v>198407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4883772444722853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4329147104200033</v>
+        <v>0.4303731743772862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5451706107149732</v>
+        <v>0.5395478384285632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -5150,19 +5150,19 @@
         <v>107009</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>91495</v>
+        <v>90111</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>122136</v>
+        <v>122961</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4401544528485387</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3763417576915191</v>
+        <v>0.3706470344928546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5023714486121983</v>
+        <v>0.5057651248809506</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>258</v>
@@ -5171,19 +5171,19 @@
         <v>286599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>261121</v>
+        <v>260109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>313232</v>
+        <v>309472</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4691844751054809</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4274749603941854</v>
+        <v>0.4258170636996152</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5127833125937981</v>
+        <v>0.5066285255442305</v>
       </c>
     </row>
     <row r="27">
@@ -5275,19 +5275,19 @@
         <v>8764</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4242</v>
+        <v>4387</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16742</v>
+        <v>16752</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05287951488429499</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02559888093830111</v>
+        <v>0.02647218921022596</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1010248296671848</v>
+        <v>0.1010851886491764</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -5296,19 +5296,19 @@
         <v>3243</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8443</v>
+        <v>7857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0306251811538122</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00908008605417124</v>
+        <v>0.009144532325015182</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07974635943662128</v>
+        <v>0.07420878321638077</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -5317,19 +5317,19 @@
         <v>12006</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6266</v>
+        <v>6554</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20653</v>
+        <v>20564</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04420419266391822</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02306939414023644</v>
+        <v>0.0241300440662327</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07604152898002876</v>
+        <v>0.0757136864716948</v>
       </c>
     </row>
     <row r="29">
@@ -5346,19 +5346,19 @@
         <v>9514</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4288</v>
+        <v>4307</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17884</v>
+        <v>17324</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05740959777709992</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02587184467346525</v>
+        <v>0.0259914925946421</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1079151291148265</v>
+        <v>0.1045317152025331</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -5367,19 +5367,19 @@
         <v>7695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3368</v>
+        <v>3401</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15363</v>
+        <v>15172</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07267593793450654</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03181246795292933</v>
+        <v>0.03212068043377468</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1451018682194668</v>
+        <v>0.143297188897667</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -5388,19 +5388,19 @@
         <v>17209</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9461</v>
+        <v>10225</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27771</v>
+        <v>27838</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06336081705849184</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03483503672426504</v>
+        <v>0.0376475175512193</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1022486071725071</v>
+        <v>0.1024940013449038</v>
       </c>
     </row>
     <row r="30">
@@ -5417,19 +5417,19 @@
         <v>27488</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17773</v>
+        <v>18027</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38644</v>
+        <v>38651</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1658637519520364</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1072449249881651</v>
+        <v>0.1087769321578341</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2331783997657026</v>
+        <v>0.2332231443497869</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -5438,19 +5438,19 @@
         <v>17702</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10859</v>
+        <v>10841</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27121</v>
+        <v>25578</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1671917510199333</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1025618350886192</v>
+        <v>0.1023906329247511</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2561540041438473</v>
+        <v>0.2415792849757718</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -5459,19 +5459,19 @@
         <v>45190</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32874</v>
+        <v>33228</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>59718</v>
+        <v>58485</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1663814407744424</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1210349228525726</v>
+        <v>0.1223378851162936</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2198689528148557</v>
+        <v>0.2153324787426636</v>
       </c>
     </row>
     <row r="31">
@@ -5488,19 +5488,19 @@
         <v>40201</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>29565</v>
+        <v>29260</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54247</v>
+        <v>53349</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2425731619135519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1783992887072769</v>
+        <v>0.1765539614118689</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.327330563613342</v>
+        <v>0.321911118521362</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -5509,19 +5509,19 @@
         <v>27647</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18324</v>
+        <v>18946</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37755</v>
+        <v>38121</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2611209462815762</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.173066753627056</v>
+        <v>0.1789434872915542</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3565864531603494</v>
+        <v>0.3600468121300345</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -5530,19 +5530,19 @@
         <v>67848</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53245</v>
+        <v>54004</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83354</v>
+        <v>83095</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2498035741027192</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.196038425058744</v>
+        <v>0.1988344894000347</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3068947118823556</v>
+        <v>0.3059409741640915</v>
       </c>
     </row>
     <row r="32">
@@ -5559,19 +5559,19 @@
         <v>79760</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66019</v>
+        <v>65202</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>93096</v>
+        <v>91893</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4812739734730168</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.39836135312482</v>
+        <v>0.3934336598406796</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.561747347869371</v>
+        <v>0.5544856703737365</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -5580,19 +5580,19 @@
         <v>49592</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38250</v>
+        <v>38319</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60673</v>
+        <v>61563</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4683861836101718</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3612573507273363</v>
+        <v>0.3619126689025042</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5730392180955367</v>
+        <v>0.581447560345274</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -5601,19 +5601,19 @@
         <v>129352</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>110454</v>
+        <v>112500</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>146985</v>
+        <v>146571</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4762499754004283</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4066718012371652</v>
+        <v>0.4142062531073408</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5411736527870559</v>
+        <v>0.5396491593492899</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>38639</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28050</v>
+        <v>27744</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>53584</v>
+        <v>51646</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02728067793005616</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0198046722463283</v>
+        <v>0.01958848319370792</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03783290848465828</v>
+        <v>0.03646430079783511</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>25</v>
@@ -5726,19 +5726,19 @@
         <v>27505</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19092</v>
+        <v>18520</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39970</v>
+        <v>40247</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02665223894615842</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01850044274535438</v>
+        <v>0.01794637907547608</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03873111534615729</v>
+        <v>0.03899958074308513</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>60</v>
@@ -5747,19 +5747,19 @@
         <v>66143</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51153</v>
+        <v>50665</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84812</v>
+        <v>82831</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02701578693738887</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02089307962286251</v>
+        <v>0.02069392655692343</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0346408341708772</v>
+        <v>0.03383174912009992</v>
       </c>
     </row>
     <row r="35">
@@ -5776,19 +5776,19 @@
         <v>74934</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59638</v>
+        <v>58512</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>94243</v>
+        <v>91900</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05290674511910444</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0421068623145618</v>
+        <v>0.04131190619408094</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06653982304783235</v>
+        <v>0.06488567071713656</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>74</v>
@@ -5797,19 +5797,19 @@
         <v>74097</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59332</v>
+        <v>56794</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>91114</v>
+        <v>91224</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07180018771807985</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05749345348820268</v>
+        <v>0.05503384883194985</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08829061631969853</v>
+        <v>0.08839684666751242</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>142</v>
@@ -5818,19 +5818,19 @@
         <v>149030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>128586</v>
+        <v>127671</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>173967</v>
+        <v>175213</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06087045025703942</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05252029064068171</v>
+        <v>0.05214642519952439</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07105558224895735</v>
+        <v>0.07156479898360761</v>
       </c>
     </row>
     <row r="36">
@@ -5847,19 +5847,19 @@
         <v>285164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>253793</v>
+        <v>254405</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>316949</v>
+        <v>318876</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2013394289105138</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.179189775840611</v>
+        <v>0.1796216339531924</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2237810136191038</v>
+        <v>0.2251410240717411</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>187</v>
@@ -5868,19 +5868,19 @@
         <v>184719</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>160655</v>
+        <v>161785</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>207588</v>
+        <v>211138</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1789946541946401</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1556763329599618</v>
+        <v>0.1567710219857943</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2011548860041766</v>
+        <v>0.2045944641264945</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>446</v>
@@ -5889,19 +5889,19 @@
         <v>469884</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>435365</v>
+        <v>433746</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>510383</v>
+        <v>511962</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.19192096553209</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1778218956858613</v>
+        <v>0.1771608784313075</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2084627090512849</v>
+        <v>0.2091075018317153</v>
       </c>
     </row>
     <row r="37">
@@ -5918,19 +5918,19 @@
         <v>376885</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>346236</v>
+        <v>343237</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>410233</v>
+        <v>408295</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2660984739555231</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2444590599343785</v>
+        <v>0.2423415879325866</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2896438960654345</v>
+        <v>0.2882755099729801</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>288</v>
@@ -5939,19 +5939,19 @@
         <v>292031</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>264440</v>
+        <v>264976</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>323222</v>
+        <v>323897</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2829805415589943</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2562445093644295</v>
+        <v>0.2567645275193556</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3132046878537135</v>
+        <v>0.3138588461056343</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>646</v>
@@ -5960,19 +5960,19 @@
         <v>668916</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>623556</v>
+        <v>626538</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>716474</v>
+        <v>715987</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2732143718554654</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2546875343163696</v>
+        <v>0.2559053016028491</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2926393953030247</v>
+        <v>0.2924403304021539</v>
       </c>
     </row>
     <row r="38">
@@ -5989,19 +5989,19 @@
         <v>640715</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>601168</v>
+        <v>600639</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>677189</v>
+        <v>680614</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4523746740848025</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4244529928994129</v>
+        <v>0.424078928907247</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.478126983082896</v>
+        <v>0.4805453311754296</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>434</v>
@@ -6010,19 +6010,19 @@
         <v>453631</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>422753</v>
+        <v>422109</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>486142</v>
+        <v>483113</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4395723775821273</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4096510688874815</v>
+        <v>0.409027313129413</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4710757382559722</v>
+        <v>0.4681406295191926</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1031</v>
@@ -6031,19 +6031,19 @@
         <v>1094345</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1041431</v>
+        <v>1047960</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1144252</v>
+        <v>1144876</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4469784254180164</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.425366089388932</v>
+        <v>0.4280328208152</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4673624364613388</v>
+        <v>0.4676173867476507</v>
       </c>
     </row>
     <row r="39">
